--- a/data/trans_orig/IP16A10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A10-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31A1599C-3A5F-462C-9C21-9D1A597387A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F15A2769-2458-4F40-8522-6B177D4FBCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{118F3A4D-0865-4FE1-9277-7CAF4C870845}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D03AD04-CF80-4DD2-A75D-C2685F1FF5A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -103,7 +103,7 @@
     <t>3,17%</t>
   </si>
   <si>
-    <t>16,18%</t>
+    <t>19,98%</t>
   </si>
   <si>
     <t>5,61%</t>
@@ -112,13 +112,13 @@
     <t>1,52%</t>
   </si>
   <si>
-    <t>8,12%</t>
+    <t>7,76%</t>
   </si>
   <si>
     <t>96,83%</t>
   </si>
   <si>
-    <t>83,82%</t>
+    <t>80,02%</t>
   </si>
   <si>
     <t>94,39%</t>
@@ -127,7 +127,7 @@
     <t>98,48%</t>
   </si>
   <si>
-    <t>91,88%</t>
+    <t>92,24%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -136,49 +136,49 @@
     <t>1,59%</t>
   </si>
   <si>
-    <t>5,59%</t>
+    <t>4,85%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>3,88%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
   </si>
   <si>
     <t>98,41%</t>
   </si>
   <si>
-    <t>94,41%</t>
+    <t>95,15%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>96,12%</t>
   </si>
   <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -187,7 +187,7 @@
     <t>1,94%</t>
   </si>
   <si>
-    <t>9,76%</t>
+    <t>9,69%</t>
   </si>
   <si>
     <t>7,36%</t>
@@ -196,28 +196,28 @@
     <t>2,25%</t>
   </si>
   <si>
-    <t>19,77%</t>
+    <t>19,35%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>90,24%</t>
+    <t>90,31%</t>
   </si>
   <si>
     <t>92,64%</t>
   </si>
   <si>
-    <t>80,23%</t>
+    <t>80,65%</t>
   </si>
   <si>
     <t>97,75%</t>
@@ -226,64 +226,58 @@
     <t>95,94%</t>
   </si>
   <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
+    <t>2,02%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>97,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -295,7 +289,7 @@
     <t>2,66%</t>
   </si>
   <si>
-    <t>14,2%</t>
+    <t>11,24%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -304,13 +298,13 @@
     <t>1,25%</t>
   </si>
   <si>
-    <t>6,77%</t>
+    <t>6,67%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>85,8%</t>
+    <t>88,76%</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -319,16 +313,16 @@
     <t>98,75%</t>
   </si>
   <si>
-    <t>93,23%</t>
+    <t>93,33%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>1,48%</t>
@@ -337,208 +331,214 @@
     <t>0,43%</t>
   </si>
   <si>
+    <t>3,99%</t>
+  </si>
+  <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>1,04%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la diarrea en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la diarrea en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>4,36%</t>
+    <t>5,01%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>95,64%</t>
+    <t>94,99%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>96,06%</t>
-  </si>
-  <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>7,82%</t>
+    <t>8,36%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>92,18%</t>
+    <t>91,64%</t>
   </si>
   <si>
     <t>98,34%</t>
   </si>
   <si>
-    <t>94,13%</t>
+    <t>94,16%</t>
   </si>
   <si>
     <t>1,39%</t>
@@ -547,28 +547,28 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>3,87%</t>
+    <t>3,7%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
+    <t>2,88%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>2,53%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>96,13%</t>
+    <t>96,3%</t>
   </si>
   <si>
     <t>99,56%</t>
@@ -577,16 +577,16 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
+    <t>97,12%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>97,47%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
 </sst>
 </file>
@@ -998,7 +998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761273F0-F489-4332-AC56-A1267549F6E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C0314A-3560-496A-BD21-08492756A49E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1772,7 +1772,7 @@
         <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,13 +1787,13 @@
         <v>141200</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>178</v>
@@ -1802,13 +1802,13 @@
         <v>118508</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -1817,13 +1817,13 @@
         <v>259708</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,7 +1879,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1899,7 +1899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D87F59-DC33-487E-9D93-AF94B7F59ABA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D02C84-4C32-4597-B432-67FBDE1B5B58}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1916,7 +1916,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2160,13 +2160,13 @@
         <v>607</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2190,13 +2190,13 @@
         <v>607</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,10 +2211,10 @@
         <v>22245</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2229,7 +2229,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -2241,10 +2241,10 @@
         <v>47768</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -2315,13 +2315,13 @@
         <v>3490</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2330,13 +2330,13 @@
         <v>1708</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2345,13 +2345,13 @@
         <v>5198</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,13 +2366,13 @@
         <v>119276</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H11" s="7">
         <v>164</v>
@@ -2381,10 +2381,10 @@
         <v>113901</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>106</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2788,7 +2788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F9FA6D-74F0-435F-9EE2-99A781FDAB54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01AD303-6352-4AF2-AC9C-DF846E6BB58F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3085,7 +3085,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,7 +3103,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -3118,7 +3118,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -3133,7 +3133,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -3204,13 +3204,13 @@
         <v>1399</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3219,13 +3219,13 @@
         <v>1173</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3234,13 +3234,13 @@
         <v>2572</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,10 +3255,10 @@
         <v>96293</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -3270,10 +3270,10 @@
         <v>104737</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -3532,10 +3532,10 @@
         <v>170</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3544,10 +3544,10 @@
         <v>3824</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>174</v>
@@ -3586,7 +3586,7 @@
         <v>179</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="M17" s="7">
         <v>454</v>
@@ -3595,13 +3595,13 @@
         <v>306837</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,7 +3657,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A10-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F15A2769-2458-4F40-8522-6B177D4FBCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70982C1F-3A2A-4515-B736-9A7DE13AF9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D03AD04-CF80-4DD2-A75D-C2685F1FF5A9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{68F18776-8B7A-4F50-A3D4-DA9CCAEB18AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="177">
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,10 +79,19 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>No</t>
@@ -91,190 +100,175 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>94,39%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
     <t>96,83%</t>
   </si>
   <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>83,82%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>92,24%</t>
+    <t>91,49%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
+    <t>5,52%</t>
   </si>
   <si>
     <t>3,88%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
   </si>
   <si>
     <t>98,41%</t>
   </si>
   <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>94,48%</t>
   </si>
   <si>
     <t>96,12%</t>
   </si>
   <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
+    <t>9,77%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>90,23%</t>
   </si>
   <si>
     <t>95,94%</t>
   </si>
   <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>97,98%</t>
@@ -286,52 +280,52 @@
     <t>Menores según si ha consumido medicamentos para la diarrea en 2012 (Tasa respuesta: 25,68%)</t>
   </si>
   <si>
+    <t>5,03%</t>
+  </si>
+  <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>12,22%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>6,67%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>87,78%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>93,33%</t>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
   </si>
   <si>
     <t>2,18%</t>
@@ -340,64 +334,61 @@
     <t>1,0%</t>
   </si>
   <si>
-    <t>4,03%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>97,16%</t>
   </si>
   <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>95,97%</t>
+    <t>95,77%</t>
   </si>
   <si>
     <t>99,0%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>12,05%</t>
+    <t>11,49%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
     <t>96,54%</t>
   </si>
   <si>
-    <t>87,95%</t>
+    <t>88,51%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>93,88%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>2,15%</t>
@@ -406,82 +397,76 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>4,6%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>95,53%</t>
+    <t>95,4%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea en 2016 (Tasa respuesta: 21,64%)</t>
   </si>
   <si>
+    <t>6,81%</t>
+  </si>
+  <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
     <t>4,16%</t>
   </si>
   <si>
+    <t>93,19%</t>
+  </si>
+  <si>
     <t>90,01%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
     <t>95,84%</t>
   </si>
   <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>4,41%</t>
   </si>
   <si>
     <t>1,26%</t>
@@ -490,103 +475,100 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>3,34%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>95,59%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>96,66%</t>
+    <t>96,74%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>8,36%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
+    <t>5,31%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>91,64%</t>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>98,34%</t>
   </si>
   <si>
-    <t>94,16%</t>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>97,44%</t>
   </si>
 </sst>
 </file>
@@ -998,8 +980,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C0314A-3560-496A-BD21-08492756A49E}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3172D73-F8D8-4434-AF59-F2CF74A11BFB}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1131,81 +1113,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>642</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>22048</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="I5" s="7">
+        <v>19616</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>41663</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1214,151 +1200,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>22048</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>20258</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>42305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>642</v>
+        <v>5136</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1392</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="7">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
       <c r="N7" s="7">
-        <v>642</v>
+        <v>6528</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="D8" s="7">
-        <v>19616</v>
+        <v>75571</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="I8" s="7">
-        <v>22048</v>
+        <v>86277</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>62</v>
+        <v>243</v>
       </c>
       <c r="N8" s="7">
-        <v>41663</v>
+        <v>161848</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1367,153 +1355,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D9" s="7">
-        <v>20258</v>
+        <v>80707</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I9" s="7">
-        <v>22048</v>
+        <v>87669</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="N9" s="7">
-        <v>42305</v>
+        <v>168376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>1392</v>
+        <v>1661</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>685</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="7">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5136</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>6528</v>
+        <v>2346</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>86277</v>
+        <v>20890</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="I11" s="7">
-        <v>75571</v>
+        <v>34581</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>243</v>
+        <v>83</v>
       </c>
       <c r="N11" s="7">
-        <v>161848</v>
+        <v>55470</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,153 +1510,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>87669</v>
+        <v>22551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>80707</v>
+        <v>35266</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="N12" s="7">
-        <v>168376</v>
+        <v>57816</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>685</v>
+        <v>6797</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>1661</v>
+        <v>2719</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>2346</v>
+        <v>9516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="D14" s="7">
-        <v>34581</v>
+        <v>118508</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="I14" s="7">
-        <v>20890</v>
+        <v>140474</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
-        <v>83</v>
+        <v>388</v>
       </c>
       <c r="N14" s="7">
-        <v>55470</v>
+        <v>258982</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,216 +1665,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="D15" s="7">
-        <v>35266</v>
+        <v>125305</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I15" s="7">
-        <v>22551</v>
+        <v>143193</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="N15" s="7">
-        <v>57816</v>
+        <v>268498</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2719</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="7">
-        <v>12</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6797</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="7">
-        <v>16</v>
-      </c>
-      <c r="N16" s="7">
-        <v>9516</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>211</v>
-      </c>
-      <c r="D17" s="7">
-        <v>141200</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="7">
-        <v>178</v>
-      </c>
-      <c r="I17" s="7">
-        <v>118508</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" s="7">
-        <v>389</v>
-      </c>
-      <c r="N17" s="7">
-        <v>259708</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="A16" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>215</v>
-      </c>
-      <c r="D18" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>405</v>
-      </c>
-      <c r="N18" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>80</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1899,8 +1731,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D02C84-4C32-4597-B432-67FBDE1B5B58}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3DB28E-D135-47F7-A305-8C43634ED457}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1916,7 +1748,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2019,86 +1851,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>607</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>607</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D5" s="7">
+        <v>25523</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="I5" s="7">
+        <v>22245</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="N5" s="7">
+        <v>47768</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,147 +1951,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D6" s="7">
+        <v>25523</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="I6" s="7">
+        <v>22852</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="N6" s="7">
+        <v>48375</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>607</v>
+        <v>1708</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>3490</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>607</v>
+        <v>5198</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="D8" s="7">
-        <v>22245</v>
+        <v>113901</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="H8" s="7">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="I8" s="7">
-        <v>25523</v>
+        <v>119276</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
-        <v>68</v>
+        <v>335</v>
       </c>
       <c r="N8" s="7">
-        <v>47768</v>
+        <v>233177</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,153 +2106,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="D9" s="7">
-        <v>22852</v>
+        <v>115609</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="I9" s="7">
-        <v>25523</v>
+        <v>122766</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>69</v>
+        <v>343</v>
       </c>
       <c r="N9" s="7">
-        <v>48375</v>
+        <v>238375</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3490</v>
+        <v>1589</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1708</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>5198</v>
+        <v>1589</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="D11" s="7">
-        <v>119276</v>
+        <v>44270</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="I11" s="7">
-        <v>113901</v>
+        <v>45232</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>335</v>
+        <v>125</v>
       </c>
       <c r="N11" s="7">
-        <v>233177</v>
+        <v>89502</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,153 +2261,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="D12" s="7">
-        <v>122766</v>
+        <v>45859</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>115609</v>
+        <v>45232</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>343</v>
+        <v>127</v>
       </c>
       <c r="N12" s="7">
-        <v>238375</v>
+        <v>91091</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>3296</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4097</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="7">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1589</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2</v>
-      </c>
       <c r="N13" s="7">
-        <v>1589</v>
+        <v>7394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>62</v>
+        <v>264</v>
       </c>
       <c r="D14" s="7">
-        <v>45232</v>
+        <v>183696</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7">
-        <v>63</v>
+        <v>264</v>
       </c>
       <c r="I14" s="7">
-        <v>44270</v>
+        <v>186753</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="M14" s="7">
-        <v>125</v>
+        <v>528</v>
       </c>
       <c r="N14" s="7">
-        <v>89502</v>
+        <v>370448</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,216 +2416,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>62</v>
+        <v>269</v>
       </c>
       <c r="D15" s="7">
-        <v>45232</v>
+        <v>186992</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="I15" s="7">
-        <v>45859</v>
+        <v>190850</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>127</v>
+        <v>539</v>
       </c>
       <c r="N15" s="7">
-        <v>91091</v>
+        <v>377842</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>6</v>
-      </c>
-      <c r="D16" s="7">
-        <v>4097</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3296</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M16" s="7">
-        <v>11</v>
-      </c>
-      <c r="N16" s="7">
-        <v>7394</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>264</v>
-      </c>
-      <c r="D17" s="7">
-        <v>186753</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" s="7">
-        <v>264</v>
-      </c>
-      <c r="I17" s="7">
-        <v>183696</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M17" s="7">
-        <v>528</v>
-      </c>
-      <c r="N17" s="7">
-        <v>370448</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>270</v>
-      </c>
-      <c r="D18" s="7">
-        <v>190850</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>269</v>
-      </c>
-      <c r="I18" s="7">
-        <v>186992</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>539</v>
-      </c>
-      <c r="N18" s="7">
-        <v>377842</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>80</v>
+      <c r="A16" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2788,8 +2482,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01AD303-6352-4AF2-AC9C-DF846E6BB58F}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D340000-25A9-42BE-929E-0524A256F774}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2805,7 +2499,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2908,86 +2602,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D5" s="7">
+        <v>18856</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I5" s="7">
+        <v>12775</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="N5" s="7">
+        <v>31630</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,147 +2702,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D6" s="7">
+        <v>18856</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <v>12775</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="N6" s="7">
+        <v>31630</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1173</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1399</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>2572</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="D8" s="7">
-        <v>12775</v>
+        <v>104737</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="I8" s="7">
-        <v>18856</v>
+        <v>96293</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="N8" s="7">
-        <v>31630</v>
+        <v>201029</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,153 +2857,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="D9" s="7">
-        <v>12775</v>
+        <v>105910</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="I9" s="7">
-        <v>18856</v>
+        <v>97692</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="N9" s="7">
-        <v>31630</v>
+        <v>203601</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1399</v>
+        <v>589</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1173</v>
+        <v>663</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>2572</v>
+        <v>1252</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7">
-        <v>96293</v>
+        <v>37181</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
+        <v>53</v>
+      </c>
+      <c r="I11" s="7">
+        <v>36996</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="I11" s="7">
-        <v>104737</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>301</v>
+        <v>108</v>
       </c>
       <c r="N11" s="7">
-        <v>201029</v>
+        <v>74177</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,153 +3012,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>97692</v>
+        <v>37770</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>105910</v>
+        <v>37659</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>305</v>
+        <v>110</v>
       </c>
       <c r="N12" s="7">
-        <v>203601</v>
+        <v>75429</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>663</v>
+        <v>1762</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>589</v>
+        <v>2062</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>1252</v>
+        <v>3824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="D14" s="7">
-        <v>36996</v>
+        <v>160774</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
-        <v>55</v>
+        <v>212</v>
       </c>
       <c r="I14" s="7">
-        <v>37181</v>
+        <v>146063</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>108</v>
+        <v>454</v>
       </c>
       <c r="N14" s="7">
-        <v>74177</v>
+        <v>306837</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,216 +3167,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="D15" s="7">
-        <v>37659</v>
+        <v>162536</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="I15" s="7">
-        <v>37770</v>
+        <v>148125</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>110</v>
+        <v>460</v>
       </c>
       <c r="N15" s="7">
-        <v>75429</v>
+        <v>310661</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2062</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1762</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M16" s="7">
-        <v>6</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3824</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>212</v>
-      </c>
-      <c r="D17" s="7">
-        <v>146063</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H17" s="7">
-        <v>242</v>
-      </c>
-      <c r="I17" s="7">
-        <v>160774</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M17" s="7">
-        <v>454</v>
-      </c>
-      <c r="N17" s="7">
-        <v>306837</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>215</v>
-      </c>
-      <c r="D18" s="7">
-        <v>148125</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>245</v>
-      </c>
-      <c r="I18" s="7">
-        <v>162536</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>460</v>
-      </c>
-      <c r="N18" s="7">
-        <v>310661</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>80</v>
+      <c r="A16" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
